--- a/IMT/IMT_2025_Actualizado.xlsx
+++ b/IMT/IMT_2025_Actualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\home\chrisbermudezr\Indices_Climaticos\IMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{930CAC42-B9B3-46A0-8402-FF1010565A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561CA82-AFAF-478C-B0FF-586AAB06A3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-70" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6324" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6252" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -25464,10 +25464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93A028A-6F58-4708-9C50-6A161987D1D3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25518,10 +25518,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45658</v>
+        <v>45962</v>
       </c>
       <c r="B2">
-        <v>0.49569999999999997</v>
+        <v>-1.7894000000000001</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -25533,306 +25533,18 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45689</v>
-      </c>
-      <c r="B3">
-        <v>0.84289999999999998</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B4">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B5">
-        <v>0.3332</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B6">
-        <v>0.30359999999999998</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>45809</v>
-      </c>
-      <c r="B7">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>45839</v>
-      </c>
-      <c r="B8">
-        <v>0.8921</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>45870</v>
-      </c>
-      <c r="B9">
-        <v>0.5212</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B10">
-        <v>-1.3357000000000001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B11">
-        <v>-1.5083</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
         <v>13</v>
       </c>
     </row>
